--- a/files/export/financial/4 资金账号.xlsx
+++ b/files/export/financial/4 资金账号.xlsx
@@ -265,24 +265,20 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>长沙银行湘江支行</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>ZHB48</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>800320616202016</t>
-        </is>
-      </c>
+          <t>ZHC01</t>
+        </is>
+      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -293,7 +289,7 @@
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>一般户</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
@@ -303,7 +299,7 @@
       </c>
       <c r="K2" s="4" t="inlineStr">
         <is>
-          <t>银行帐户</t>
+          <t>现金帐户</t>
         </is>
       </c>
       <c r="L2" s="4"/>
@@ -335,22 +331,22 @@
       </c>
       <c r="Y2" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="Z2" s="4" t="inlineStr">
         <is>
-          <t>孙思伟</t>
+          <t>马文玉</t>
         </is>
       </c>
       <c r="AA2" s="4" t="inlineStr">
         <is>
-          <t>2018-09-25 12:20:08</t>
+          <t>2017-10-23 18:07:29</t>
         </is>
       </c>
       <c r="AB2" s="4" t="inlineStr">
         <is>
-          <t>2018-08-14 15:04:46</t>
+          <t>2017-10-19 14:36:57</t>
         </is>
       </c>
       <c r="AC2" s="4" t="inlineStr">
@@ -362,22 +358,22 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>江苏银行昆山支行</t>
+          <t>工商银行科技支行</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>ZHB51</t>
+          <t>ZHB12</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>30360188000207937</t>
+          <t>1302049819201505664</t>
         </is>
       </c>
       <c r="E3" s="4"/>
@@ -432,18 +428,22 @@
       </c>
       <c r="Y3" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
-        </is>
-      </c>
-      <c r="Z3" s="4"/>
+          <t/>
+        </is>
+      </c>
+      <c r="Z3" s="4" t="inlineStr">
+        <is>
+          <t>孙思伟</t>
+        </is>
+      </c>
       <c r="AA3" s="4" t="inlineStr">
         <is>
-          <t>2018-10-17 16:46:14</t>
+          <t>2019-09-23 10:39:15</t>
         </is>
       </c>
       <c r="AB3" s="4" t="inlineStr">
         <is>
-          <t>2018-10-17 16:46:14</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC3" s="4" t="inlineStr">
@@ -455,22 +455,22 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>徽商银行黄山路支行</t>
+          <t>武汉农商行藏龙岛支行</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>ZHB52</t>
+          <t>ZHB43</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>520177416021000004</t>
+          <t>210260326310018</t>
         </is>
       </c>
       <c r="E4" s="4"/>
@@ -525,18 +525,18 @@
       </c>
       <c r="Y4" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t/>
         </is>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="inlineStr">
         <is>
-          <t>2018-10-29 15:56:52</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB4" s="4" t="inlineStr">
         <is>
-          <t>2018-10-29 15:56:52</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC4" s="4" t="inlineStr">
@@ -548,22 +548,22 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>工行四牌楼支行</t>
+          <t>上海浦东发展银行蜀山支行</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>ZHB55</t>
+          <t>ZHB42</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>1302010119200205410</t>
+          <t>银行暂未提供</t>
         </is>
       </c>
       <c r="E5" s="4"/>
@@ -618,18 +618,18 @@
       </c>
       <c r="Y5" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t/>
         </is>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="inlineStr">
         <is>
-          <t>2019-06-12 14:39:24</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB5" s="4" t="inlineStr">
         <is>
-          <t>2019-06-12 14:39:24</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC5" s="4" t="inlineStr">
@@ -641,22 +641,22 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>建设银行黄山西路支行</t>
+          <t>杭州银行合肥分行0345</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>ZHB56</t>
+          <t>ZHB41</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>34050148880800001355</t>
+          <t>3401040160000390345</t>
         </is>
       </c>
       <c r="E6" s="4"/>
@@ -711,18 +711,22 @@
       </c>
       <c r="Y6" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
-        </is>
-      </c>
-      <c r="Z6" s="4"/>
+          <t/>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>孙思伟</t>
+        </is>
+      </c>
       <c r="AA6" s="4" t="inlineStr">
         <is>
-          <t>2019-06-12 14:40:12</t>
+          <t>2019-10-16 10:48:23</t>
         </is>
       </c>
       <c r="AB6" s="4" t="inlineStr">
         <is>
-          <t>2019-06-12 14:40:12</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC6" s="4" t="inlineStr">
@@ -734,22 +738,22 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>四川分公司工行</t>
+          <t>南洋商业银行合肥分行</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>ZHF02</t>
+          <t>ZHB40</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>4402009609100025091</t>
+          <t>04344300004605</t>
         </is>
       </c>
       <c r="E7" s="4"/>
@@ -762,7 +766,7 @@
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>基本户</t>
+          <t>一般户</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -804,18 +808,18 @@
       </c>
       <c r="Y7" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t/>
         </is>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="inlineStr">
         <is>
-          <t>2019-06-28 17:33:11</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB7" s="4" t="inlineStr">
         <is>
-          <t>2019-06-28 17:33:11</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC7" s="4" t="inlineStr">
@@ -827,20 +831,24 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>支付宝（公司用，孙思伟）</t>
+          <t>苏州银行桐泾支行</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>ZHZFB01</t>
-        </is>
-      </c>
-      <c r="D8" s="4"/>
+          <t>ZHB39</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>51414000000078</t>
+        </is>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -875,7 +883,7 @@
         <v>0.0</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" s="4" t="inlineStr">
         <is>
@@ -893,22 +901,22 @@
       </c>
       <c r="Y8" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t/>
         </is>
       </c>
       <c r="Z8" s="4" t="inlineStr">
         <is>
-          <t>孙思伟</t>
+          <t>马文玉</t>
         </is>
       </c>
       <c r="AA8" s="4" t="inlineStr">
         <is>
-          <t>2019-07-17 10:32:40</t>
+          <t>2017-11-01 15:13:38</t>
         </is>
       </c>
       <c r="AB8" s="4" t="inlineStr">
         <is>
-          <t>2019-07-17 09:52:43</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC8" s="4" t="inlineStr">
@@ -920,20 +928,24 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>微信（公司用，孙思伟）</t>
+          <t>河北银行建华南大街支行</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>ZHWX01</t>
-        </is>
-      </c>
-      <c r="D9" s="4"/>
+          <t>ZHB38</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>01151900001627</t>
+        </is>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -972,7 +984,7 @@
       </c>
       <c r="S9" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T9" s="4"/>
@@ -986,7 +998,7 @@
       </c>
       <c r="Y9" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t/>
         </is>
       </c>
       <c r="Z9" s="4" t="inlineStr">
@@ -996,12 +1008,12 @@
       </c>
       <c r="AA9" s="4" t="inlineStr">
         <is>
-          <t>2019-07-17 10:32:30</t>
+          <t>2018-12-15 15:41:57</t>
         </is>
       </c>
       <c r="AB9" s="4" t="inlineStr">
         <is>
-          <t>2019-07-17 09:53:17</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC9" s="4" t="inlineStr">
@@ -1013,22 +1025,22 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>浙商银行合肥分行</t>
+          <t>成都银行双流华阳大道支行</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>ZHB58</t>
+          <t>ZHB37</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>3610000010120100112212</t>
+          <t>1001300000558330</t>
         </is>
       </c>
       <c r="E10" s="4"/>
@@ -1083,18 +1095,18 @@
       </c>
       <c r="Y10" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t/>
         </is>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="inlineStr">
         <is>
-          <t>2019-10-14 10:26:07</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB10" s="4" t="inlineStr">
         <is>
-          <t>2019-10-14 10:26:07</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC10" s="4" t="inlineStr">
@@ -1106,22 +1118,22 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>泉州银行厦门分行营业部</t>
+          <t>亳州药都农商行人民支行</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>ZHB47</t>
+          <t>ZHB36</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>0000016433700012</t>
+          <t>20000346029210300000067</t>
         </is>
       </c>
       <c r="E11" s="4"/>
@@ -1176,22 +1188,18 @@
       </c>
       <c r="Y11" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
-        </is>
-      </c>
-      <c r="Z11" s="4" t="inlineStr">
-        <is>
-          <t>孙思伟</t>
-        </is>
-      </c>
+          <t/>
+        </is>
+      </c>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="inlineStr">
         <is>
-          <t>2018-08-14 15:06:36</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB11" s="4" t="inlineStr">
         <is>
-          <t>2018-08-10 12:13:06</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC11" s="4" t="inlineStr">
@@ -1203,22 +1211,22 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>孙思伟</t>
+          <t>浙商银行杭州东新小微企业专营支付</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>ZHB46</t>
+          <t>ZHB35</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>623061551190289204</t>
+          <t>3310010910120100008705</t>
         </is>
       </c>
       <c r="E12" s="4"/>
@@ -1273,18 +1281,18 @@
       </c>
       <c r="Y12" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t/>
         </is>
       </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4" t="inlineStr">
         <is>
-          <t>2018-08-14 15:07:28</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB12" s="4" t="inlineStr">
         <is>
-          <t>2018-08-14 15:07:28</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC12" s="4" t="inlineStr">
@@ -1296,22 +1304,22 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>新安银行</t>
+          <t>光大银行合肥分行</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>ZHB49</t>
+          <t>ZHB34</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>658010100100022700</t>
+          <t>76690188000568218</t>
         </is>
       </c>
       <c r="E13" s="4"/>
@@ -1366,22 +1374,18 @@
       </c>
       <c r="Y13" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
-        </is>
-      </c>
-      <c r="Z13" s="4" t="inlineStr">
-        <is>
-          <t>孙思伟</t>
-        </is>
-      </c>
+          <t/>
+        </is>
+      </c>
+      <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="inlineStr">
         <is>
-          <t>2018-10-17 16:44:10</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB13" s="4" t="inlineStr">
         <is>
-          <t>2018-10-08 15:15:03</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC13" s="4" t="inlineStr">
@@ -1393,22 +1397,22 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>杭州银行合肥分行2(已销户）</t>
+          <t>民生银行高新区支行</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>ZHB50</t>
+          <t>ZHB33</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>3401040160000588971</t>
+          <t>699330551</t>
         </is>
       </c>
       <c r="E14" s="4"/>
@@ -1463,22 +1467,18 @@
       </c>
       <c r="Y14" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
-        </is>
-      </c>
-      <c r="Z14" s="4" t="inlineStr">
-        <is>
-          <t>孙思伟</t>
-        </is>
-      </c>
+          <t/>
+        </is>
+      </c>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="4" t="inlineStr">
         <is>
-          <t>2018-10-31 11:18:30</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB14" s="4" t="inlineStr">
         <is>
-          <t>2018-10-17 16:42:35</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC14" s="4" t="inlineStr">
@@ -1490,22 +1490,22 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>杭州银行合肥分行5869</t>
+          <t>合肥科技农村商业银行站西路支行</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>ZHB53</t>
+          <t>ZHB32</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>3401040160000595869</t>
+          <t>20000346029210300000042</t>
         </is>
       </c>
       <c r="E15" s="4"/>
@@ -1560,22 +1560,18 @@
       </c>
       <c r="Y15" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
-        </is>
-      </c>
-      <c r="Z15" s="4" t="inlineStr">
-        <is>
-          <t>孙思伟</t>
-        </is>
-      </c>
+          <t/>
+        </is>
+      </c>
+      <c r="Z15" s="4"/>
       <c r="AA15" s="4" t="inlineStr">
         <is>
-          <t>2019-10-16 10:48:02</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB15" s="4" t="inlineStr">
         <is>
-          <t>2018-10-31 11:20:02</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC15" s="4" t="inlineStr">
@@ -1587,22 +1583,22 @@
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>上海第三分公司中国银行上海市九亭镇支行</t>
+          <t>昆山鹿城村镇银行</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>ZHF01</t>
+          <t>ZHB31</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>446871258189</t>
+          <t>7201260000000058</t>
         </is>
       </c>
       <c r="E16" s="4"/>
@@ -1615,7 +1611,7 @@
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>基本户</t>
+          <t>一般户</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1657,18 +1653,18 @@
       </c>
       <c r="Y16" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t/>
         </is>
       </c>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="inlineStr">
         <is>
-          <t>2019-06-27 14:44:09</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB16" s="4" t="inlineStr">
         <is>
-          <t>2019-06-27 14:44:09</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC16" s="4" t="inlineStr">
@@ -1680,22 +1676,22 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>中国银行合肥高新支行尾号1532</t>
+          <t>安徽宿松农村商业银行</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>ZHB57</t>
+          <t>ZHB30</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>179748591532</t>
+          <t>20000346029210300000034</t>
         </is>
       </c>
       <c r="E17" s="4"/>
@@ -1750,18 +1746,18 @@
       </c>
       <c r="Y17" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t/>
         </is>
       </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4" t="inlineStr">
         <is>
-          <t>2019-08-30 17:07:23</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB17" s="4" t="inlineStr">
         <is>
-          <t>2019-08-30 17:07:23</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC17" s="4" t="inlineStr">
@@ -1773,22 +1769,22 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>交通银行安徽省分行</t>
+          <t>乌鲁木齐银行北京北路支行</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>ZHB54</t>
+          <t>ZHB29</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>341301000018880103609</t>
+          <t>0000020060110019218988</t>
         </is>
       </c>
       <c r="E18" s="4"/>
@@ -1843,22 +1839,18 @@
       </c>
       <c r="Y18" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
-        </is>
-      </c>
-      <c r="Z18" s="4" t="inlineStr">
-        <is>
-          <t>孙思伟</t>
-        </is>
-      </c>
+          <t/>
+        </is>
+      </c>
+      <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="inlineStr">
         <is>
-          <t>2019-06-12 14:38:35</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB18" s="4" t="inlineStr">
         <is>
-          <t>2019-03-07 12:37:31</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC18" s="4" t="inlineStr">
@@ -1870,22 +1862,22 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>昆山农村商业银行开发区支行</t>
+          <t>建设银行昆山萧林路支行</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>ZHB44</t>
+          <t>ZHB28</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>3052253012011000002019</t>
+          <t>32250198648000000132</t>
         </is>
       </c>
       <c r="E19" s="4"/>
@@ -1922,7 +1914,7 @@
         <v>0.0</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
@@ -1940,18 +1932,18 @@
       </c>
       <c r="Y19" s="4" t="inlineStr">
         <is>
-          <t>马文玉</t>
+          <t/>
         </is>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4" t="inlineStr">
         <is>
-          <t>2018-02-12 11:38:51</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB19" s="4" t="inlineStr">
         <is>
-          <t>2018-02-12 11:38:51</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC19" s="4" t="inlineStr">
@@ -1963,20 +1955,24 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>苏州分公司建行</t>
+          <t>杭州银行包河支行</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>ZHF03</t>
-        </is>
-      </c>
-      <c r="D20" s="4"/>
+          <t>ZHB27</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>3401040160000266685</t>
+        </is>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1987,7 +1983,7 @@
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>基本户</t>
+          <t>一般户</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -2029,22 +2025,18 @@
       </c>
       <c r="Y20" s="4" t="inlineStr">
         <is>
-          <t>shaoq@zhonghui.com</t>
-        </is>
-      </c>
-      <c r="Z20" s="4" t="inlineStr">
-        <is>
-          <t>孙思伟</t>
-        </is>
-      </c>
+          <t/>
+        </is>
+      </c>
+      <c r="Z20" s="4"/>
       <c r="AA20" s="4" t="inlineStr">
         <is>
-          <t>2019-10-30 15:08:10</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB20" s="4" t="inlineStr">
         <is>
-          <t>2019-10-30 14:19:34</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC20" s="4" t="inlineStr">
@@ -2056,20 +2048,24 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>光大银行昆明经典支行</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>ZHC01</t>
-        </is>
-      </c>
-      <c r="D21" s="4"/>
+          <t>ZHB26</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>39800188000009650</t>
+        </is>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2080,7 +2076,7 @@
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>一般户</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -2090,7 +2086,7 @@
       </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
-          <t>现金帐户</t>
+          <t>银行帐户</t>
         </is>
       </c>
       <c r="L21" s="4"/>
@@ -2122,22 +2118,18 @@
       </c>
       <c r="Y21" s="4" t="inlineStr">
         <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="Z21" s="4" t="inlineStr">
-        <is>
-          <t>马文玉</t>
-        </is>
-      </c>
+          <t/>
+        </is>
+      </c>
+      <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="inlineStr">
         <is>
-          <t>2017-10-23 18:07:29</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB21" s="4" t="inlineStr">
         <is>
-          <t>2017-10-19 14:36:57</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -2149,22 +2141,22 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>徽商银行青年路支行</t>
+          <t>包商银行包头分行营业部</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>ZHB01</t>
+          <t>ZHB25</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>2311012080071145</t>
+          <t>609956021</t>
         </is>
       </c>
       <c r="E22" s="4"/>
@@ -2177,7 +2169,7 @@
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>基本户</t>
+          <t>一般户</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -2242,22 +2234,22 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>民生银行望江路支行</t>
+          <t>徽商银行青年路支行</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>ZHB02</t>
+          <t>ZHB01</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>3402012830002065</t>
+          <t>2311012080071145</t>
         </is>
       </c>
       <c r="E23" s="4"/>
@@ -2270,7 +2262,7 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>一般户</t>
+          <t>基本户</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -2335,22 +2327,22 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>合肥科技农村商业银行怀宁路支行</t>
+          <t>民生银行望江路支行</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>ZHB03</t>
+          <t>ZHB02</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>20000346029210300000018</t>
+          <t>3402012830002065</t>
         </is>
       </c>
       <c r="E24" s="4"/>
@@ -2428,22 +2420,22 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>交通银行河南分行营业部</t>
+          <t>合肥科技农村商业银行怀宁路支行</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>ZHB04</t>
+          <t>ZHB03</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>411060000018170367710</t>
+          <t>20000346029210300000018</t>
         </is>
       </c>
       <c r="E25" s="4"/>
@@ -2521,22 +2513,22 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>中国银行新站开发区支行</t>
+          <t>交通银行河南分行营业部</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>ZHB05</t>
+          <t>ZHB04</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>179727474313</t>
+          <t>411060000018170367710</t>
         </is>
       </c>
       <c r="E26" s="4"/>
@@ -2614,22 +2606,22 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>建设银行青年路支行</t>
+          <t>中国银行新站开发区支行</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>ZHB06</t>
+          <t>ZHB05</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>34001454708053008494</t>
+          <t>179727474313</t>
         </is>
       </c>
       <c r="E27" s="4"/>
@@ -2707,22 +2699,22 @@
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>建设银行城西支行</t>
+          <t>建设银行青年路支行</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>ZHB07</t>
+          <t>ZHB06</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>34001478608053031358</t>
+          <t>34001454708053008494</t>
         </is>
       </c>
       <c r="E28" s="4"/>
@@ -2800,22 +2792,22 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>建设银行菏泽分行双河分理处</t>
+          <t>建设银行城西支行</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>ZHB08</t>
+          <t>ZHB07</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>37001816501050150044</t>
+          <t>34001478608053031358</t>
         </is>
       </c>
       <c r="E29" s="4"/>
@@ -2893,22 +2885,22 @@
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>徽行银行亳州中药城支行</t>
+          <t>建设银行菏泽分行双河分理处</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>ZHB09</t>
+          <t>ZHB08</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>2710601021000007995</t>
+          <t>37001816501050150044</t>
         </is>
       </c>
       <c r="E30" s="4"/>
@@ -2986,22 +2978,22 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>徽商银行阜阳清河东路支行</t>
+          <t>徽行银行亳州中药城支行</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>ZHB10</t>
+          <t>ZHB09</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>2080201021000654839</t>
+          <t>2710601021000007995</t>
         </is>
       </c>
       <c r="E31" s="4"/>
@@ -3079,22 +3071,22 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>中国银行高新技术产业开发区支行</t>
+          <t>徽商银行阜阳清河东路支行</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>ZHB11</t>
+          <t>ZHB10</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>181235322054</t>
+          <t>2080201021000654839</t>
         </is>
       </c>
       <c r="E32" s="4"/>
@@ -3172,22 +3164,22 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>工商银行科技支行</t>
+          <t>中国银行高新技术产业开发区支行</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>ZHB12</t>
+          <t>ZHB11</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>1302049819201505664</t>
+          <t>181235322054</t>
         </is>
       </c>
       <c r="E33" s="4"/>
@@ -3245,14 +3237,10 @@
           <t/>
         </is>
       </c>
-      <c r="Z33" s="4" t="inlineStr">
-        <is>
-          <t>孙思伟</t>
-        </is>
-      </c>
+      <c r="Z33" s="4"/>
       <c r="AA33" s="4" t="inlineStr">
         <is>
-          <t>2019-09-23 10:39:15</t>
+          <t>2017-10-27 19:31:31</t>
         </is>
       </c>
       <c r="AB33" s="4" t="inlineStr">
@@ -4385,22 +4373,22 @@
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>包商银行包头分行营业部</t>
+          <t>昆山农村商业银行开发区支行</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>ZHB25</t>
+          <t>ZHB44</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>609956021</t>
+          <t>3052253012011000002019</t>
         </is>
       </c>
       <c r="E46" s="4"/>
@@ -4437,7 +4425,7 @@
         <v>0.0</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S46" s="4" t="inlineStr">
         <is>
@@ -4455,18 +4443,18 @@
       </c>
       <c r="Y46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>马文玉</t>
         </is>
       </c>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-02-12 11:38:51</t>
         </is>
       </c>
       <c r="AB46" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-02-12 11:38:51</t>
         </is>
       </c>
       <c r="AC46" s="4" t="inlineStr">
@@ -4478,24 +4466,20 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>光大银行昆明经典支行</t>
+          <t>胡冬梅</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>ZHB26</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="inlineStr">
-        <is>
-          <t>39800188000009650</t>
-        </is>
-      </c>
+          <t>ZHB45</t>
+        </is>
+      </c>
+      <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -4548,18 +4532,18 @@
       </c>
       <c r="Y47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>sunsw@zhonghui.com</t>
         </is>
       </c>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-05-17 13:00:24</t>
         </is>
       </c>
       <c r="AB47" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-05-17 13:00:24</t>
         </is>
       </c>
       <c r="AC47" s="4" t="inlineStr">
@@ -4571,22 +4555,22 @@
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>杭州银行包河支行</t>
+          <t>泉州银行厦门分行营业部</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>ZHB27</t>
+          <t>ZHB47</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>3401040160000266685</t>
+          <t>0000016433700012</t>
         </is>
       </c>
       <c r="E48" s="4"/>
@@ -4641,18 +4625,22 @@
       </c>
       <c r="Y48" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z48" s="4"/>
+          <t>sunsw@zhonghui.com</t>
+        </is>
+      </c>
+      <c r="Z48" s="4" t="inlineStr">
+        <is>
+          <t>孙思伟</t>
+        </is>
+      </c>
       <c r="AA48" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-08-14 15:06:36</t>
         </is>
       </c>
       <c r="AB48" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-08-10 12:13:06</t>
         </is>
       </c>
       <c r="AC48" s="4" t="inlineStr">
@@ -4664,22 +4652,22 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>建设银行昆山萧林路支行</t>
+          <t>长沙银行湘江支行</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>ZHB28</t>
+          <t>ZHB48</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>32250198648000000132</t>
+          <t>800320616202016</t>
         </is>
       </c>
       <c r="E49" s="4"/>
@@ -4734,18 +4722,22 @@
       </c>
       <c r="Y49" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z49" s="4"/>
+          <t>sunsw@zhonghui.com</t>
+        </is>
+      </c>
+      <c r="Z49" s="4" t="inlineStr">
+        <is>
+          <t>孙思伟</t>
+        </is>
+      </c>
       <c r="AA49" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-09-25 12:20:08</t>
         </is>
       </c>
       <c r="AB49" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-08-14 15:04:46</t>
         </is>
       </c>
       <c r="AC49" s="4" t="inlineStr">
@@ -4757,22 +4749,22 @@
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>乌鲁木齐银行北京北路支行</t>
+          <t>孙思伟</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>ZHB29</t>
+          <t>ZHB46</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>0000020060110019218988</t>
+          <t>623061551190289204</t>
         </is>
       </c>
       <c r="E50" s="4"/>
@@ -4827,18 +4819,18 @@
       </c>
       <c r="Y50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>sunsw@zhonghui.com</t>
         </is>
       </c>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-08-14 15:07:28</t>
         </is>
       </c>
       <c r="AB50" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-08-14 15:07:28</t>
         </is>
       </c>
       <c r="AC50" s="4" t="inlineStr">
@@ -4850,22 +4842,22 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>安徽宿松农村商业银行</t>
+          <t>新安银行</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>ZHB30</t>
+          <t>ZHB49</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>20000346029210300000034</t>
+          <t>658010100100022700</t>
         </is>
       </c>
       <c r="E51" s="4"/>
@@ -4920,18 +4912,22 @@
       </c>
       <c r="Y51" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z51" s="4"/>
+          <t>sunsw@zhonghui.com</t>
+        </is>
+      </c>
+      <c r="Z51" s="4" t="inlineStr">
+        <is>
+          <t>孙思伟</t>
+        </is>
+      </c>
       <c r="AA51" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-10-17 16:44:10</t>
         </is>
       </c>
       <c r="AB51" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-10-08 15:15:03</t>
         </is>
       </c>
       <c r="AC51" s="4" t="inlineStr">
@@ -4943,22 +4939,22 @@
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>昆山鹿城村镇银行</t>
+          <t>杭州银行合肥分行2(已销户）</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>ZHB31</t>
+          <t>ZHB50</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>7201260000000058</t>
+          <t>3401040160000588971</t>
         </is>
       </c>
       <c r="E52" s="4"/>
@@ -5013,18 +5009,22 @@
       </c>
       <c r="Y52" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z52" s="4"/>
+          <t>sunsw@zhonghui.com</t>
+        </is>
+      </c>
+      <c r="Z52" s="4" t="inlineStr">
+        <is>
+          <t>孙思伟</t>
+        </is>
+      </c>
       <c r="AA52" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-10-31 11:18:30</t>
         </is>
       </c>
       <c r="AB52" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-10-17 16:42:35</t>
         </is>
       </c>
       <c r="AC52" s="4" t="inlineStr">
@@ -5036,22 +5036,22 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>合肥科技农村商业银行站西路支行</t>
+          <t>江苏银行昆山支行</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>ZHB32</t>
+          <t>ZHB51</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>20000346029210300000042</t>
+          <t>30360188000207937</t>
         </is>
       </c>
       <c r="E53" s="4"/>
@@ -5106,18 +5106,18 @@
       </c>
       <c r="Y53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>sunsw@zhonghui.com</t>
         </is>
       </c>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-10-17 16:46:14</t>
         </is>
       </c>
       <c r="AB53" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-10-17 16:46:14</t>
         </is>
       </c>
       <c r="AC53" s="4" t="inlineStr">
@@ -5129,22 +5129,22 @@
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>民生银行高新区支行</t>
+          <t>徽商银行黄山路支行</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>ZHB33</t>
+          <t>ZHB52</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>699330551</t>
+          <t>520177416021000004</t>
         </is>
       </c>
       <c r="E54" s="4"/>
@@ -5199,18 +5199,18 @@
       </c>
       <c r="Y54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>sunsw@zhonghui.com</t>
         </is>
       </c>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-10-29 15:56:52</t>
         </is>
       </c>
       <c r="AB54" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-10-29 15:56:52</t>
         </is>
       </c>
       <c r="AC54" s="4" t="inlineStr">
@@ -5222,22 +5222,22 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>光大银行合肥分行</t>
+          <t>杭州银行合肥分行5869</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>ZHB34</t>
+          <t>ZHB53</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>76690188000568218</t>
+          <t>3401040160000595869</t>
         </is>
       </c>
       <c r="E55" s="4"/>
@@ -5292,18 +5292,22 @@
       </c>
       <c r="Y55" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z55" s="4"/>
+          <t>sunsw@zhonghui.com</t>
+        </is>
+      </c>
+      <c r="Z55" s="4" t="inlineStr">
+        <is>
+          <t>孙思伟</t>
+        </is>
+      </c>
       <c r="AA55" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-10-16 10:48:02</t>
         </is>
       </c>
       <c r="AB55" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2018-10-31 11:20:02</t>
         </is>
       </c>
       <c r="AC55" s="4" t="inlineStr">
@@ -5315,22 +5319,22 @@
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>浙商银行杭州东新小微企业专营支付</t>
+          <t>交通银行安徽省分行</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>ZHB35</t>
+          <t>ZHB54</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>3310010910120100008705</t>
+          <t>341301000018880103609</t>
         </is>
       </c>
       <c r="E56" s="4"/>
@@ -5385,18 +5389,22 @@
       </c>
       <c r="Y56" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z56" s="4"/>
+          <t>sunsw@zhonghui.com</t>
+        </is>
+      </c>
+      <c r="Z56" s="4" t="inlineStr">
+        <is>
+          <t>孙思伟</t>
+        </is>
+      </c>
       <c r="AA56" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-06-12 14:38:35</t>
         </is>
       </c>
       <c r="AB56" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-03-07 12:37:31</t>
         </is>
       </c>
       <c r="AC56" s="4" t="inlineStr">
@@ -5408,22 +5416,22 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>亳州药都农商行人民支行</t>
+          <t>工行四牌楼支行</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>ZHB36</t>
+          <t>ZHB55</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>20000346029210300000067</t>
+          <t>1302010119200205410</t>
         </is>
       </c>
       <c r="E57" s="4"/>
@@ -5478,18 +5486,18 @@
       </c>
       <c r="Y57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>sunsw@zhonghui.com</t>
         </is>
       </c>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-06-12 14:39:24</t>
         </is>
       </c>
       <c r="AB57" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-06-12 14:39:24</t>
         </is>
       </c>
       <c r="AC57" s="4" t="inlineStr">
@@ -5501,22 +5509,22 @@
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>成都银行双流华阳大道支行</t>
+          <t>建设银行黄山西路支行</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>ZHB37</t>
+          <t>ZHB56</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>1001300000558330</t>
+          <t>34050148880800001355</t>
         </is>
       </c>
       <c r="E58" s="4"/>
@@ -5571,18 +5579,18 @@
       </c>
       <c r="Y58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>sunsw@zhonghui.com</t>
         </is>
       </c>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-06-12 14:40:12</t>
         </is>
       </c>
       <c r="AB58" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-06-12 14:40:12</t>
         </is>
       </c>
       <c r="AC58" s="4" t="inlineStr">
@@ -5594,22 +5602,22 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>河北银行建华南大街支行</t>
+          <t>上海第三分公司中国银行上海市九亭镇支行</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>ZHB38</t>
+          <t>ZHF01</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>01151900001627</t>
+          <t>446871258189</t>
         </is>
       </c>
       <c r="E59" s="4"/>
@@ -5622,7 +5630,7 @@
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>一般户</t>
+          <t>基本户</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
@@ -5650,7 +5658,7 @@
       </c>
       <c r="S59" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T59" s="4"/>
@@ -5664,22 +5672,18 @@
       </c>
       <c r="Y59" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z59" s="4" t="inlineStr">
-        <is>
-          <t>孙思伟</t>
-        </is>
-      </c>
+          <t>sunsw@zhonghui.com</t>
+        </is>
+      </c>
+      <c r="Z59" s="4"/>
       <c r="AA59" s="4" t="inlineStr">
         <is>
-          <t>2018-12-15 15:41:57</t>
+          <t>2019-06-27 14:44:09</t>
         </is>
       </c>
       <c r="AB59" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-06-27 14:44:09</t>
         </is>
       </c>
       <c r="AC59" s="4" t="inlineStr">
@@ -5691,22 +5695,22 @@
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>苏州银行桐泾支行</t>
+          <t>四川分公司工行</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>ZHB39</t>
+          <t>ZHF02</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>51414000000078</t>
+          <t>4402009609100025091</t>
         </is>
       </c>
       <c r="E60" s="4"/>
@@ -5719,7 +5723,7 @@
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>一般户</t>
+          <t>基本户</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
@@ -5743,7 +5747,7 @@
         <v>0.0</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S60" s="4" t="inlineStr">
         <is>
@@ -5761,22 +5765,18 @@
       </c>
       <c r="Y60" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z60" s="4" t="inlineStr">
-        <is>
-          <t>马文玉</t>
-        </is>
-      </c>
+          <t>sunsw@zhonghui.com</t>
+        </is>
+      </c>
+      <c r="Z60" s="4"/>
       <c r="AA60" s="4" t="inlineStr">
         <is>
-          <t>2017-11-01 15:13:38</t>
+          <t>2019-06-28 17:33:11</t>
         </is>
       </c>
       <c r="AB60" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-06-28 17:33:11</t>
         </is>
       </c>
       <c r="AC60" s="4" t="inlineStr">
@@ -5788,24 +5788,20 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>南洋商业银行合肥分行</t>
+          <t>支付宝（公司用，孙思伟）</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>ZHB40</t>
-        </is>
-      </c>
-      <c r="D61" s="4" t="inlineStr">
-        <is>
-          <t>04344300004605</t>
-        </is>
-      </c>
+          <t>ZHZFB01</t>
+        </is>
+      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -5858,18 +5854,22 @@
       </c>
       <c r="Y61" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z61" s="4"/>
+          <t>sunsw@zhonghui.com</t>
+        </is>
+      </c>
+      <c r="Z61" s="4" t="inlineStr">
+        <is>
+          <t>孙思伟</t>
+        </is>
+      </c>
       <c r="AA61" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-07-17 10:32:40</t>
         </is>
       </c>
       <c r="AB61" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-07-17 09:52:43</t>
         </is>
       </c>
       <c r="AC61" s="4" t="inlineStr">
@@ -5881,24 +5881,20 @@
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>杭州银行合肥分行0345</t>
+          <t>微信（公司用，孙思伟）</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>ZHB41</t>
-        </is>
-      </c>
-      <c r="D62" s="4" t="inlineStr">
-        <is>
-          <t>3401040160000390345</t>
-        </is>
-      </c>
+          <t>ZHWX01</t>
+        </is>
+      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -5951,7 +5947,7 @@
       </c>
       <c r="Y62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>sunsw@zhonghui.com</t>
         </is>
       </c>
       <c r="Z62" s="4" t="inlineStr">
@@ -5961,12 +5957,12 @@
       </c>
       <c r="AA62" s="4" t="inlineStr">
         <is>
-          <t>2019-10-16 10:48:23</t>
+          <t>2019-07-17 10:32:30</t>
         </is>
       </c>
       <c r="AB62" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-07-17 09:53:17</t>
         </is>
       </c>
       <c r="AC62" s="4" t="inlineStr">
@@ -5978,22 +5974,22 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>上海浦东发展银行蜀山支行</t>
+          <t>中国银行合肥高新支行尾号1532</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>ZHB42</t>
+          <t>ZHB57</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>银行暂未提供</t>
+          <t>179748591532</t>
         </is>
       </c>
       <c r="E63" s="4"/>
@@ -6048,18 +6044,18 @@
       </c>
       <c r="Y63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>sunsw@zhonghui.com</t>
         </is>
       </c>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-08-30 17:07:23</t>
         </is>
       </c>
       <c r="AB63" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-08-30 17:07:23</t>
         </is>
       </c>
       <c r="AC63" s="4" t="inlineStr">
@@ -6071,22 +6067,22 @@
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>武汉农商行藏龙岛支行</t>
+          <t>浙商银行合肥分行</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>ZHB43</t>
+          <t>ZHB58</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>210260326310018</t>
+          <t>3610000010120100112212</t>
         </is>
       </c>
       <c r="E64" s="4"/>
@@ -6141,18 +6137,18 @@
       </c>
       <c r="Y64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>sunsw@zhonghui.com</t>
         </is>
       </c>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-10-14 10:26:07</t>
         </is>
       </c>
       <c r="AB64" s="4" t="inlineStr">
         <is>
-          <t>2017-10-27 19:31:31</t>
+          <t>2019-10-14 10:26:07</t>
         </is>
       </c>
       <c r="AC64" s="4" t="inlineStr">
@@ -6164,17 +6160,17 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>胡冬梅</t>
+          <t>苏州分公司建行</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>ZHB45</t>
+          <t>ZHF03</t>
         </is>
       </c>
       <c r="D65" s="4"/>
@@ -6188,7 +6184,7 @@
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>一般户</t>
+          <t>基本户</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
@@ -6230,18 +6226,22 @@
       </c>
       <c r="Y65" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
-        </is>
-      </c>
-      <c r="Z65" s="4"/>
+          <t>shaoq@zhonghui.com</t>
+        </is>
+      </c>
+      <c r="Z65" s="4" t="inlineStr">
+        <is>
+          <t>孙思伟</t>
+        </is>
+      </c>
       <c r="AA65" s="4" t="inlineStr">
         <is>
-          <t>2018-05-17 13:00:24</t>
+          <t>2019-10-30 15:08:10</t>
         </is>
       </c>
       <c r="AB65" s="4" t="inlineStr">
         <is>
-          <t>2018-05-17 13:00:24</t>
+          <t>2019-10-30 14:19:34</t>
         </is>
       </c>
       <c r="AC65" s="4" t="inlineStr">
